--- a/SchedulingData/dynamic12/pso/scheduling1_10.xlsx
+++ b/SchedulingData/dynamic12/pso/scheduling1_10.xlsx
@@ -462,102 +462,102 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>45.5</v>
+        <v>42.36</v>
       </c>
       <c r="E2" t="n">
-        <v>26.64</v>
+        <v>26.464</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>79.88</v>
+        <v>50.76</v>
       </c>
       <c r="E3" t="n">
-        <v>26.152</v>
+        <v>27.624</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>69.12</v>
+        <v>40.5</v>
       </c>
       <c r="E4" t="n">
-        <v>25.788</v>
+        <v>27.64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>69.62</v>
+        <v>58.6</v>
       </c>
       <c r="E5" t="n">
-        <v>27.168</v>
+        <v>25.84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>58.6</v>
       </c>
       <c r="D6" t="n">
-        <v>47.22</v>
+        <v>123.7</v>
       </c>
       <c r="E6" t="n">
-        <v>27.448</v>
+        <v>21.94</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -565,32 +565,32 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>79.88</v>
+        <v>123.7</v>
       </c>
       <c r="D7" t="n">
-        <v>119.02</v>
+        <v>167.74</v>
       </c>
       <c r="E7" t="n">
-        <v>23.368</v>
+        <v>19.156</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>45.5</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>100.28</v>
+        <v>74.12</v>
       </c>
       <c r="E8" t="n">
-        <v>22.792</v>
+        <v>25.788</v>
       </c>
     </row>
     <row r="9">
@@ -599,36 +599,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>47.22</v>
+        <v>42.36</v>
       </c>
       <c r="D9" t="n">
-        <v>92.31999999999999</v>
+        <v>87.95999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>24.568</v>
+        <v>23.044</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>69.62</v>
+        <v>50.76</v>
       </c>
       <c r="D10" t="n">
-        <v>141.82</v>
+        <v>102.72</v>
       </c>
       <c r="E10" t="n">
-        <v>24.528</v>
+        <v>25.028</v>
       </c>
     </row>
     <row r="11">
@@ -637,55 +637,55 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>69.12</v>
+        <v>167.74</v>
       </c>
       <c r="D11" t="n">
-        <v>130.82</v>
+        <v>214.46</v>
       </c>
       <c r="E11" t="n">
-        <v>22.708</v>
+        <v>16.604</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>92.31999999999999</v>
+        <v>40.5</v>
       </c>
       <c r="D12" t="n">
-        <v>146.62</v>
+        <v>94.72</v>
       </c>
       <c r="E12" t="n">
-        <v>22.248</v>
+        <v>25.308</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>141.82</v>
+        <v>102.72</v>
       </c>
       <c r="D13" t="n">
-        <v>188.48</v>
+        <v>169.82</v>
       </c>
       <c r="E13" t="n">
-        <v>20.992</v>
+        <v>20.948</v>
       </c>
     </row>
     <row r="14">
@@ -694,36 +694,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>100.28</v>
+        <v>169.82</v>
       </c>
       <c r="D14" t="n">
-        <v>144.44</v>
+        <v>239.42</v>
       </c>
       <c r="E14" t="n">
-        <v>19.516</v>
+        <v>17.588</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>144.44</v>
+        <v>74.12</v>
       </c>
       <c r="D15" t="n">
-        <v>206.84</v>
+        <v>119.02</v>
       </c>
       <c r="E15" t="n">
-        <v>14.896</v>
+        <v>22.428</v>
       </c>
     </row>
     <row r="16">
@@ -732,55 +732,55 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>119.02</v>
       </c>
       <c r="D16" t="n">
-        <v>184.12</v>
+        <v>181.06</v>
       </c>
       <c r="E16" t="n">
-        <v>19.948</v>
+        <v>18.864</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>130.82</v>
+        <v>87.95999999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>196.86</v>
+        <v>155.86</v>
       </c>
       <c r="E17" t="n">
-        <v>19.744</v>
+        <v>20.324</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>184.12</v>
+        <v>94.72</v>
       </c>
       <c r="D18" t="n">
-        <v>266.26</v>
+        <v>161.18</v>
       </c>
       <c r="E18" t="n">
-        <v>16.824</v>
+        <v>20.772</v>
       </c>
     </row>
     <row r="19">
@@ -789,17 +789,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>266.26</v>
+        <v>181.06</v>
       </c>
       <c r="D19" t="n">
-        <v>300.46</v>
+        <v>252.26</v>
       </c>
       <c r="E19" t="n">
-        <v>14.544</v>
+        <v>15.324</v>
       </c>
     </row>
     <row r="20">
@@ -808,17 +808,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>188.48</v>
+        <v>161.18</v>
       </c>
       <c r="D20" t="n">
-        <v>259.94</v>
+        <v>203.78</v>
       </c>
       <c r="E20" t="n">
-        <v>16.456</v>
+        <v>18.132</v>
       </c>
     </row>
     <row r="21">
@@ -827,112 +827,112 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>259.94</v>
+        <v>203.78</v>
       </c>
       <c r="D21" t="n">
-        <v>320.12</v>
+        <v>251.76</v>
       </c>
       <c r="E21" t="n">
-        <v>13.048</v>
+        <v>15.444</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>300.46</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>357.06</v>
+        <v>58.2</v>
       </c>
       <c r="E22" t="n">
-        <v>11.004</v>
+        <v>25.38</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>320.12</v>
+        <v>155.86</v>
       </c>
       <c r="D23" t="n">
-        <v>354.84</v>
+        <v>206.58</v>
       </c>
       <c r="E23" t="n">
-        <v>10.716</v>
+        <v>16.892</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>196.86</v>
+        <v>206.58</v>
       </c>
       <c r="D24" t="n">
-        <v>237.9</v>
+        <v>236.18</v>
       </c>
       <c r="E24" t="n">
-        <v>16.78</v>
+        <v>14.572</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>214.46</v>
       </c>
       <c r="D25" t="n">
-        <v>48.6</v>
+        <v>259.56</v>
       </c>
       <c r="E25" t="n">
-        <v>25.84</v>
+        <v>13.724</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>146.62</v>
+        <v>58.2</v>
       </c>
       <c r="D26" t="n">
-        <v>205.16</v>
+        <v>119.46</v>
       </c>
       <c r="E26" t="n">
-        <v>18.504</v>
+        <v>22.364</v>
       </c>
     </row>
     <row r="27">
@@ -941,55 +941,55 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>206.84</v>
+        <v>239.42</v>
       </c>
       <c r="D27" t="n">
-        <v>281.86</v>
+        <v>296.22</v>
       </c>
       <c r="E27" t="n">
-        <v>11.464</v>
+        <v>14.508</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>48.6</v>
+        <v>259.56</v>
       </c>
       <c r="D28" t="n">
-        <v>105.54</v>
+        <v>298.66</v>
       </c>
       <c r="E28" t="n">
-        <v>22.276</v>
+        <v>11.444</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>354.84</v>
+        <v>119.46</v>
       </c>
       <c r="D29" t="n">
-        <v>408.34</v>
+        <v>184.04</v>
       </c>
       <c r="E29" t="n">
-        <v>7.996</v>
+        <v>18.516</v>
       </c>
     </row>
     <row r="30">
@@ -998,93 +998,93 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>281.86</v>
+        <v>296.22</v>
       </c>
       <c r="D30" t="n">
-        <v>338.86</v>
+        <v>365.8</v>
       </c>
       <c r="E30" t="n">
-        <v>7.384</v>
+        <v>10.66</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>237.9</v>
+        <v>251.76</v>
       </c>
       <c r="D31" t="n">
-        <v>276.08</v>
+        <v>302.68</v>
       </c>
       <c r="E31" t="n">
-        <v>14.092</v>
+        <v>11.972</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>276.08</v>
+        <v>184.04</v>
       </c>
       <c r="D32" t="n">
-        <v>322.54</v>
+        <v>239.52</v>
       </c>
       <c r="E32" t="n">
-        <v>11.076</v>
+        <v>15.108</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>105.54</v>
+        <v>302.68</v>
       </c>
       <c r="D33" t="n">
-        <v>152.6</v>
+        <v>341.84</v>
       </c>
       <c r="E33" t="n">
-        <v>19.68</v>
+        <v>8.696</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>152.6</v>
+        <v>252.26</v>
       </c>
       <c r="D34" t="n">
-        <v>207.9</v>
+        <v>318.8</v>
       </c>
       <c r="E34" t="n">
-        <v>15.78</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="35">
@@ -1093,22 +1093,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>207.9</v>
+        <v>239.52</v>
       </c>
       <c r="D35" t="n">
-        <v>253.92</v>
+        <v>282.06</v>
       </c>
       <c r="E35" t="n">
-        <v>12.308</v>
+        <v>11.984</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1116,70 +1116,70 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>322.54</v>
+        <v>236.18</v>
       </c>
       <c r="D36" t="n">
-        <v>375.76</v>
+        <v>289.2</v>
       </c>
       <c r="E36" t="n">
-        <v>7.884</v>
+        <v>11.38</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>253.92</v>
+        <v>289.2</v>
       </c>
       <c r="D37" t="n">
-        <v>328.42</v>
+        <v>348.62</v>
       </c>
       <c r="E37" t="n">
-        <v>9.448</v>
+        <v>8.548</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>205.16</v>
+        <v>298.66</v>
       </c>
       <c r="D38" t="n">
-        <v>276.6</v>
+        <v>352.4</v>
       </c>
       <c r="E38" t="n">
-        <v>15.48</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>276.6</v>
+        <v>282.06</v>
       </c>
       <c r="D39" t="n">
-        <v>336.1</v>
+        <v>338.1</v>
       </c>
       <c r="E39" t="n">
-        <v>13.12</v>
+        <v>9.02</v>
       </c>
     </row>
     <row r="40">
@@ -1188,36 +1188,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>328.42</v>
+        <v>338.1</v>
       </c>
       <c r="D40" t="n">
-        <v>402.82</v>
+        <v>379.14</v>
       </c>
       <c r="E40" t="n">
-        <v>6.088</v>
+        <v>6.056</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>336.1</v>
+        <v>352.4</v>
       </c>
       <c r="D41" t="n">
-        <v>386.16</v>
+        <v>417.1</v>
       </c>
       <c r="E41" t="n">
-        <v>10.744</v>
+        <v>4.84</v>
       </c>
     </row>
   </sheetData>
